--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,33 +437,6 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -472,34 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9986090704793722</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9986442045804805</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9986813431088856</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.998705924123181</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9987309855189073</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9987462656583814</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.998762547124189</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9987760259396847</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9987872659663261</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9987975467826885</v>
+        <v>0.9986258056582044</v>
       </c>
     </row>
     <row r="3">
@@ -511,33 +457,6 @@
       <c r="B3" t="n">
         <v>445.6</v>
       </c>
-      <c r="C3" t="n">
-        <v>493.4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>541.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>589.4000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>637.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>685.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>733.4000000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>781.6999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>829.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>877.4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9986258056582044</v>
+        <v>0.9986303281012939</v>
       </c>
     </row>
     <row r="3">

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,28 +434,158 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wavelength [nm]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>D_lambda</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>D_lamb</t>
-        </is>
-      </c>
       <c r="B2" t="n">
-        <v>0.9986303281012939</v>
+        <v>536</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9855421277238633</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>wave</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>445.6</v>
+        <v>571</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9856963789362015</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>605</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9858510348427729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>639</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9859863975805241</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>674</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9860898507820237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>708</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9861835036285653</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>742</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9862831877575764</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>777</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.986355261723378</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>811</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9864152965803178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>845</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9865044363907401</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>880</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9865370379378378</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>914</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9865271004667059</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>957</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9867729287349608</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536</v>
+        <v>445.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9855421277238633</v>
+        <v>0.9868953290216224</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>571</v>
+        <v>454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9856963789362015</v>
+        <v>0.9869054517988559</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>605</v>
+        <v>463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9858510348427729</v>
+        <v>0.9869165292540552</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639</v>
+        <v>471.7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9859863975805241</v>
+        <v>0.9869239603633706</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674</v>
+        <v>480.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9860898507820237</v>
+        <v>0.9869303963890782</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708</v>
+        <v>489.3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9861835036285653</v>
+        <v>0.9869493166015976</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742</v>
+        <v>497.8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9862831877575764</v>
+        <v>0.9869609195895845</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777</v>
+        <v>507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.986355261723378</v>
+        <v>0.9869685263821164</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811</v>
+        <v>515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9864152965803178</v>
+        <v>0.9869837326819846</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845</v>
+        <v>524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9865044363907401</v>
+        <v>0.9869958056968535</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880</v>
+        <v>532.6999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9865370379378378</v>
+        <v>0.9870038478074715</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914</v>
+        <v>541.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9865271004667059</v>
+        <v>0.9870092943592149</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957</v>
+        <v>550.3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9867729287349608</v>
+        <v>0.9870159668069178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>559</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9870253752192767</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>568</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9870361625370071</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>445.6</v>
+        <v>1060</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9868953290216224</v>
+        <v>0.9877141165880814</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>454</v>
+        <v>1098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9869054517988559</v>
+        <v>0.9877187401212023</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>463</v>
+        <v>1138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9869165292540552</v>
+        <v>0.9877223387324845</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>471.7</v>
+        <v>1179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9869239603633706</v>
+        <v>0.9877267431388438</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480.5</v>
+        <v>1222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9869303963890782</v>
+        <v>0.9877298039960337</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>489.3</v>
+        <v>1266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9869493166015976</v>
+        <v>0.9877338924802926</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>497.8</v>
+        <v>1312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9869609195895845</v>
+        <v>0.9877370094669072</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507</v>
+        <v>1358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9869685263821164</v>
+        <v>0.9877441922520284</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>515</v>
+        <v>1408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9869837326819846</v>
+        <v>0.9877512273010767</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>524</v>
+        <v>1459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9869958056968535</v>
+        <v>0.9877573212508646</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>532.6999999999999</v>
+        <v>1512</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9870038478074715</v>
+        <v>0.9877657036117446</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>541.5</v>
+        <v>1566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9870092943592149</v>
+        <v>0.9877763650476681</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550.3</v>
+        <v>1623</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9870159668069178</v>
+        <v>0.9877860734282625</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>559</v>
+        <v>1682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9870253752192767</v>
+        <v>0.9877848157313798</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568</v>
+        <v>1743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9870361625370071</v>
+        <v>0.9877963312384769</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,164 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1060</v>
+        <v>505.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9877141165880814</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1098</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9877187401212023</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1138</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9877223387324845</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9877267431388438</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1222</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9877298039960337</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1266</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9877338924802926</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9877370094669072</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1358</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9877441922520284</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1408</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9877512273010767</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1459</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9877573212508646</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1512</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9877657036117446</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1566</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9877763650476681</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1623</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9877860734282625</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1682</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9877848157313798</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9877963312384769</v>
+        <v>0.9869682225633806</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,164 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>505.4</v>
+        <v>1060</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9869682225633806</v>
+        <v>0.9977909655462176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.997783595151742</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1138</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9977798052734457</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9977751693068933</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9977710613285244</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1266</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.997769447643283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9977649633684418</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1358</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9977608119298461</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9977578800173088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1459</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9977542303247551</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9977504483639019</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1566</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9977442856471729</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1623</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9977348422023976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1682</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9977300683889093</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9977292845504311</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1060</v>
+        <v>306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9977909655462176</v>
+        <v>0.9981020682082578</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1098</v>
+        <v>446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997783595151742</v>
+        <v>0.9980273170769528</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1138</v>
+        <v>551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9977798052734457</v>
+        <v>0.9980064553618823</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1179</v>
+        <v>803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9977751693068933</v>
+        <v>0.9979077879693319</v>
       </c>
     </row>
     <row r="6">
@@ -494,120 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1222</v>
+        <v>1005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9977710613285244</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1266</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.997769447643283</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9977649633684418</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1358</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9977608119298461</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1408</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9977578800173088</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1459</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9977542303247551</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1512</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9977504483639019</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1566</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9977442856471729</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1623</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9977348422023976</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1682</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9977300683889093</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9977292845504311</v>
+        <v>0.9978000776964508</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>306</v>
+        <v>368.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9981020682082578</v>
+        <v>0.9980212716829348</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446</v>
+        <v>505.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9980273170769528</v>
+        <v>0.9980144860736605</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551</v>
+        <v>608.4000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9980064553618823</v>
+        <v>0.9980060326635294</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9979077879693319</v>
+        <v>0.9979197027516613</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1005</v>
+        <v>947.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9978000776964508</v>
+        <v>0.9978313602124843</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,54 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>368.4</v>
+        <v>608.4000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980212716829348</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>505.4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9980144860736605</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>608.4000000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9980060326635294</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>778</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9979197027516613</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>947.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9978313602124843</v>
+        <v>0.9977128926406252</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>608.4000000000001</v>
+        <v>560</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9977128926406252</v>
+        <v>0.997107889369037</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>632.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9971338682295455</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>705</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9971723263615138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>778</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9972554293258522</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>850.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9973223055561085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>923.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9973700312457264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>996</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9974121387051172</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>D_lambda</t>
+          <t>D_lambda [ppm]</t>
         </is>
       </c>
     </row>
@@ -450,76 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997107889369037</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>632.3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9971338682295455</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>705</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9971723263615138</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>778</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9972554293258522</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>850.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9973223055561085</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>923.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9973700312457264</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>996</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9974121387051172</v>
+        <v>26658.0286881486</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550</v>
+        <v>677</v>
       </c>
       <c r="C2" t="n">
-        <v>26658.0286881486</v>
+        <v>13300.78294736592</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -453,7 +453,7 @@
         <v>677</v>
       </c>
       <c r="C2" t="n">
-        <v>13300.78294736592</v>
+        <v>10852.66967581677</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>677</v>
+        <v>1683</v>
       </c>
       <c r="C2" t="n">
-        <v>10852.66967581677</v>
+        <v>12852.4680862866</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -453,7 +453,7 @@
         <v>1683</v>
       </c>
       <c r="C2" t="n">
-        <v>12852.4680862866</v>
+        <v>12339.6811962474</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12680.45342505697</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>677</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13997.7936990443</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15072.66405901664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>1683</v>
       </c>
-      <c r="C2" t="n">
-        <v>12339.6811962474</v>
+      <c r="C5" t="n">
+        <v>15694.17025090958</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -453,7 +453,7 @@
         <v>480.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12680.45342505697</v>
+        <v>12604.5065567052</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>677</v>
       </c>
       <c r="C3" t="n">
-        <v>13997.7936990443</v>
+        <v>13915.04447572711</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>1098</v>
       </c>
       <c r="C4" t="n">
-        <v>15072.66405901664</v>
+        <v>14984.33843605829</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>1683</v>
       </c>
       <c r="C5" t="n">
-        <v>15694.17025090958</v>
+        <v>15602.70693260246</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         <v>480.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12604.5065567052</v>
+        <v>12919.98153166996</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>677</v>
+        <v>542.5</v>
       </c>
       <c r="C3" t="n">
-        <v>13915.04447572711</v>
+        <v>12847.20382482663</v>
       </c>
     </row>
     <row r="4">
@@ -472,21 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1098</v>
+        <v>575</v>
       </c>
       <c r="C4" t="n">
-        <v>14984.33843605829</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1683</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15602.70693260246</v>
+        <v>12814.35181620871</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,29 +453,7 @@
         <v>480.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12919.98153166996</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>542.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12847.20382482663</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>575</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12814.35181620871</v>
+        <v>12338.05006287325</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Wavelength [nm]</t>
+  </si>
+  <si>
+    <t>D_lambda [ppm]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,43 +376,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Wavelength [nm]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D_lambda [ppm]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>480.7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>12338.05006287325</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>542.5</v>
+      </c>
+      <c r="C3">
+        <v>12301.68278969646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>575</v>
+      </c>
+      <c r="C4">
+        <v>12287.0301422755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>677</v>
+      </c>
+      <c r="C5">
+        <v>12248.29184826903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>778.3</v>
+      </c>
+      <c r="C6">
+        <v>12212.93179843785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>880</v>
+      </c>
+      <c r="C7">
+        <v>12184.48317876852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>981.4000000000001</v>
+      </c>
+      <c r="C8">
+        <v>12167.14603979241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1098</v>
+      </c>
+      <c r="C9">
+        <v>12146.44565302536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1222</v>
+      </c>
+      <c r="C10">
+        <v>12136.87270042407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1359</v>
+      </c>
+      <c r="C11">
+        <v>12123.1861415867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1513</v>
+      </c>
+      <c r="C12">
+        <v>12101.96389109386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1683</v>
+      </c>
+      <c r="C13">
+        <v>12082.002015805</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,128 +399,7 @@
         <v>480.7</v>
       </c>
       <c r="C2">
-        <v>12338.05006287325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>542.5</v>
-      </c>
-      <c r="C3">
-        <v>12301.68278969646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>575</v>
-      </c>
-      <c r="C4">
-        <v>12287.0301422755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>677</v>
-      </c>
-      <c r="C5">
-        <v>12248.29184826903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>778.3</v>
-      </c>
-      <c r="C6">
-        <v>12212.93179843785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>880</v>
-      </c>
-      <c r="C7">
-        <v>12184.48317876852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>981.4000000000001</v>
-      </c>
-      <c r="C8">
-        <v>12167.14603979241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1098</v>
-      </c>
-      <c r="C9">
-        <v>12146.44565302536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1222</v>
-      </c>
-      <c r="C10">
-        <v>12136.87270042407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1359</v>
-      </c>
-      <c r="C11">
-        <v>12123.1861415867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1513</v>
-      </c>
-      <c r="C12">
-        <v>12101.96389109386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1683</v>
-      </c>
-      <c r="C13">
-        <v>12082.002015805</v>
+        <v>1810.147678213192</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -399,7 +399,7 @@
         <v>480.7</v>
       </c>
       <c r="C2">
-        <v>1810.147678213192</v>
+        <v>2906.986279502366</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,29 @@
         <v>480.7</v>
       </c>
       <c r="C2">
-        <v>2906.986279502366</v>
+        <v>1942.948907474262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>542.5</v>
+      </c>
+      <c r="C3">
+        <v>1974.917762486816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>575</v>
+      </c>
+      <c r="C4">
+        <v>1972.159451367528</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Wavelength [nm]</t>
-  </si>
-  <si>
-    <t>D_lambda [ppm]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,55 +420,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wavelength [nm]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>D_lambda [ppm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14907.25914017133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>480.7</v>
-      </c>
-      <c r="C2">
-        <v>1942.948907474262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>542.5</v>
       </c>
-      <c r="C3">
-        <v>1974.917762486816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="C3" t="n">
+        <v>14521.03874860489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>575</v>
       </c>
-      <c r="C4">
-        <v>1972.159451367528</v>
+      <c r="C4" t="n">
+        <v>14321.35430319614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>677</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13915.02882402995</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>778.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13663.81299714858</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>880</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13423.56832208613</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>981.4000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13357.78706187263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13194.40385326731</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13105.74505860995</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12992.14615838451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12843.54004590971</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12712.64111342618</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Wavelength [nm]</t>
+  </si>
+  <si>
+    <t>D_lambda [ppm]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,164 +376,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Wavelength [nm]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D_lambda [ppm]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>480.7</v>
       </c>
-      <c r="C2" t="n">
-        <v>14907.25914017133</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C2">
+        <v>12344.58905008351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>542.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>14521.03874860489</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>12324.22845606951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>575</v>
       </c>
-      <c r="C4" t="n">
-        <v>14321.35430319614</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>12317.87953636776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>677</v>
       </c>
-      <c r="C5" t="n">
-        <v>13915.02882402995</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>12295.66670262094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>778.3</v>
       </c>
-      <c r="C6" t="n">
-        <v>13663.81299714858</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>12270.50255813955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>880</v>
       </c>
-      <c r="C7" t="n">
-        <v>13423.56832208613</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>12251.49381763635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>981.4000000000001</v>
       </c>
-      <c r="C8" t="n">
-        <v>13357.78706187263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8">
+        <v>12237.08899985076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1098</v>
       </c>
-      <c r="C9" t="n">
-        <v>13194.40385326731</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>12223.18991101956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1222</v>
       </c>
-      <c r="C10" t="n">
-        <v>13105.74505860995</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10">
+        <v>12217.43719622714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1359</v>
       </c>
-      <c r="C11" t="n">
-        <v>12992.14615838451</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>12208.58131262248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1513</v>
       </c>
-      <c r="C12" t="n">
-        <v>12843.54004590971</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>12193.23088661362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1683</v>
       </c>
-      <c r="C13" t="n">
-        <v>12712.64111342618</v>
+      <c r="C13">
+        <v>12178.36073902412</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -399,7 +399,7 @@
         <v>480.7</v>
       </c>
       <c r="C2">
-        <v>12344.58905008351</v>
+        <v>12354.73485800254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>542.5</v>
       </c>
       <c r="C3">
-        <v>12324.22845606951</v>
+        <v>12333.06911207721</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>575</v>
       </c>
       <c r="C4">
-        <v>12317.87953636776</v>
+        <v>12326.04852480412</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>677</v>
       </c>
       <c r="C5">
-        <v>12295.66670262094</v>
+        <v>12302.48437123715</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>778.3</v>
       </c>
       <c r="C6">
-        <v>12270.50255813955</v>
+        <v>12276.4746913756</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>880</v>
       </c>
       <c r="C7">
-        <v>12251.49381763635</v>
+        <v>12256.6918218564</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>981.4000000000001</v>
       </c>
       <c r="C8">
-        <v>12237.08899985076</v>
+        <v>12242.03122744982</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>1098</v>
       </c>
       <c r="C9">
-        <v>12223.18991101956</v>
+        <v>12227.57285863363</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>1222</v>
       </c>
       <c r="C10">
-        <v>12217.43719622714</v>
+        <v>12221.50418426526</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>1359</v>
       </c>
       <c r="C11">
-        <v>12208.58131262248</v>
+        <v>12212.26009819476</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>1513</v>
       </c>
       <c r="C12">
-        <v>12193.23088661362</v>
+        <v>12196.41421434514</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>1683</v>
       </c>
       <c r="C13">
-        <v>12178.36073902412</v>
+        <v>12181.11034186475</v>
       </c>
     </row>
   </sheetData>
